--- a/test-cases1.xlsx
+++ b/test-cases1.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXX\git\Test-cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -44,13 +52,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -99,13 +108,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -140,13 +150,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -165,13 +176,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -194,13 +206,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -219,13 +232,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -244,13 +258,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -275,13 +290,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -303,13 +319,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -361,13 +378,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -395,13 +413,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -421,13 +440,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -443,13 +463,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -468,13 +489,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -493,13 +515,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -512,13 +535,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -540,13 +564,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -562,13 +587,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -590,13 +616,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -609,13 +636,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://henderson.ru/</t>
     </r>
@@ -625,25 +653,40 @@
   </si>
   <si>
     <t>6. Ввести 6-значный код, который пришел на телефон во второй смс, и нажать "отправить"</t>
+  </si>
+  <si>
+    <t>6. Открывается страница личного кабинета/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -651,7 +694,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -685,7 +728,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -699,6 +748,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -710,6 +760,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -718,6 +770,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -726,82 +781,358 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.75"/>
-    <col customWidth="1" min="2" max="2" width="29.13"/>
-    <col customWidth="1" min="3" max="3" width="29.75"/>
-    <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="5" max="5" width="26.75"/>
-    <col customWidth="1" min="6" max="6" width="27.75"/>
-    <col customWidth="1" min="7" max="7" width="35.88"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,1696 +1155,1691 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10" t="s">
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10" t="s">
+    <row r="14" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10" t="s">
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10" t="s">
+    <row r="18" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10" t="s">
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10" t="s">
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
+    <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10" t="s">
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>7</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
+    <row r="30" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
+    <row r="32" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10" t="s">
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10" t="s">
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>8</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10" t="s">
+    <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10" t="s">
+    <row r="39" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10" t="s">
+    <row r="40" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10" t="s">
+    <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>9</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10" t="s">
+    <row r="43" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10" t="s">
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10" t="s">
+    <row r="45" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10" t="s">
+    <row r="46" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10" t="s">
+    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="10" t="s">
+    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>10</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10" t="s">
+    <row r="50" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10" t="s">
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10" t="s">
+    <row r="52" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="10" t="s">
+    <row r="53" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="10" t="s">
+    <row r="54" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="10" t="s">
+    <row r="55" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>11</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="10" t="s">
+    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="10" t="s">
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="10" t="s">
+    <row r="59" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="10" t="s">
+    <row r="60" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="10" t="s">
+    <row r="61" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>12</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="10" t="s">
+    <row r="63" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="10" t="s">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="10" t="s">
+    <row r="65" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="10" t="s">
+    <row r="66" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="10" t="s">
+    <row r="67" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="10" t="s">
+    <row r="69" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="10" t="s">
+    <row r="70" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="10" t="s">
+    <row r="71" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="10" t="s">
+    <row r="72" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="10" t="s">
+    <row r="73" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="10" t="s">
+    <row r="74" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="B75" s="8" t="s">
+    <row r="75" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>14</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="10" t="s">
+    <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="10" t="s">
+    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="10" t="s">
+    <row r="78" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="10" t="s">
+    <row r="79" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="10" t="s">
+    <row r="80" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>15</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="10" t="s">
+    <row r="82" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="10" t="s">
+    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="10" t="s">
+    <row r="84" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="10" t="s">
+    <row r="85" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="10" t="s">
+    <row r="86" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
+        <v>16</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="10" t="s">
+    <row r="88" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="10" t="s">
+    <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="10" t="s">
+    <row r="90" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="10" t="s">
+    <row r="91" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="10" t="s">
+    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="10" t="s">
+    <row r="93" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="10" t="s">
+    <row r="94" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
+        <v>17</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="10" t="s">
+    <row r="96" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="10" t="s">
+    <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="10" t="s">
+    <row r="98" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="10" t="s">
+    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="10" t="s">
+    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="B101" s="8" t="s">
+    <row r="101" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
+        <v>18</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="10" t="s">
+    <row r="102" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="10" t="s">
+    <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="10" t="s">
+    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="10" t="s">
+    <row r="105" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
+        <v>19</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="10" t="s">
+    <row r="107" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="10" t="s">
+    <row r="108" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="10" t="s">
+    <row r="109" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="B110" s="8" t="s">
+    <row r="110" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
+        <v>20</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="F110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="10" t="s">
+    <row r="111" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="10" t="s">
+    <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="10" t="s">
+    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="10" t="s">
+    <row r="114" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="10" t="s">
+    <row r="115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>22</v>
+      <c r="G115" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
     <mergeCell ref="E29:E35"/>
-    <mergeCell ref="B36:B41"/>
     <mergeCell ref="E36:E41"/>
     <mergeCell ref="D49:D55"/>
     <mergeCell ref="E49:E55"/>
@@ -2529,6 +2855,7 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E25:E28"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="C17:C20"/>
@@ -2542,11 +2869,6 @@
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B13:B16"/>
@@ -2558,6 +2880,15 @@
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="C49:C55"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C56:C61"/>
@@ -2581,7 +2912,6 @@
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="E62:E67"/>
-    <mergeCell ref="B68:B74"/>
     <mergeCell ref="E68:E74"/>
     <mergeCell ref="C81:C86"/>
     <mergeCell ref="C87:C94"/>
@@ -2599,38 +2929,39 @@
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
     <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A87:A94"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="B75:B80"/>
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A94"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B68:B74"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E8"/>
-    <hyperlink r:id="rId3" ref="E13"/>
-    <hyperlink r:id="rId4" ref="E17"/>
-    <hyperlink r:id="rId5" ref="E21"/>
-    <hyperlink r:id="rId6" ref="E25"/>
-    <hyperlink r:id="rId7" ref="E29"/>
-    <hyperlink r:id="rId8" ref="E36"/>
-    <hyperlink r:id="rId9" ref="E42"/>
-    <hyperlink r:id="rId10" ref="E49"/>
-    <hyperlink r:id="rId11" ref="E56"/>
-    <hyperlink r:id="rId12" ref="E62"/>
-    <hyperlink r:id="rId13" ref="E68"/>
-    <hyperlink r:id="rId14" ref="E75"/>
-    <hyperlink r:id="rId15" ref="E81"/>
-    <hyperlink r:id="rId16" ref="E87"/>
-    <hyperlink r:id="rId17" ref="E95"/>
-    <hyperlink r:id="rId18" ref="E101"/>
-    <hyperlink r:id="rId19" ref="E106"/>
-    <hyperlink r:id="rId20" ref="E110"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E17" r:id="rId4"/>
+    <hyperlink ref="E21" r:id="rId5"/>
+    <hyperlink ref="E25" r:id="rId6"/>
+    <hyperlink ref="E29" r:id="rId7"/>
+    <hyperlink ref="E36" r:id="rId8"/>
+    <hyperlink ref="E42" r:id="rId9"/>
+    <hyperlink ref="E49" r:id="rId10"/>
+    <hyperlink ref="E56" r:id="rId11"/>
+    <hyperlink ref="E62" r:id="rId12"/>
+    <hyperlink ref="E68" r:id="rId13"/>
+    <hyperlink ref="E75" r:id="rId14"/>
+    <hyperlink ref="E81" r:id="rId15"/>
+    <hyperlink ref="E87" r:id="rId16"/>
+    <hyperlink ref="E95" r:id="rId17"/>
+    <hyperlink ref="E101" r:id="rId18"/>
+    <hyperlink ref="E106" r:id="rId19"/>
+    <hyperlink ref="E110" r:id="rId20"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>